--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-0.003160382153225852</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.930952795565148</v>
+        <v>-1.931891606487603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3933437518672729</v>
+        <v>0.3927772532080003</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.231352424308923</v>
+        <v>-0.2308808287755595</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03477050985313293</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.944672867475417</v>
+        <v>-1.945686870874554</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3116774219503857</v>
+        <v>0.3112029063208404</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2117498186403828</v>
+        <v>-0.2110621359895648</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06943832707847127</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.013403901330899</v>
+        <v>-2.014871249662262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.285254931649211</v>
+        <v>0.2845395080846657</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2293244175106508</v>
+        <v>-0.2285870932247419</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.09280975768780221</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.078992911694745</v>
+        <v>-2.079928802521017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2602954095351268</v>
+        <v>0.2599114168872178</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2359165346411036</v>
+        <v>-0.2352449125192856</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1033888571959197</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.044748943770573</v>
+        <v>-2.046185631092027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2476294923464938</v>
+        <v>0.2469286692628576</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2236083292347433</v>
+        <v>-0.2230199298541071</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1033003833970168</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.911760463410154</v>
+        <v>-1.912901490993199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2622343533998536</v>
+        <v>0.2622445737364899</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2106255816103831</v>
+        <v>-0.2099378989595651</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.0999318710547854</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.639444703902636</v>
+        <v>-1.640858030454635</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2599990197726723</v>
+        <v>0.260053041552036</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1840833673657539</v>
+        <v>-0.1839359025085721</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1004816628761558</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.261906928603555</v>
+        <v>-1.263615184869919</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2437997862040403</v>
+        <v>0.244109316399313</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1257909473362241</v>
+        <v>-0.1259413322895877</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1100795591704038</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7739267355638683</v>
+        <v>-0.7759051007270495</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2687593083181245</v>
+        <v>0.2689666351470336</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02592219786997817</v>
+        <v>-0.02621712758434173</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1349868395669625</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2385037398581938</v>
+        <v>-0.240676291417466</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1640271386610617</v>
+        <v>0.1636110249551528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06260343797799806</v>
+        <v>0.06218440417590726</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1811981957771214</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4263671195874458</v>
+        <v>0.4251479794315371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04192331681836725</v>
+        <v>0.04175687133600366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1627408362929712</v>
+        <v>0.1619363497948805</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2534801880778508</v>
       </c>
       <c r="E13" t="n">
-        <v>1.113391288716443</v>
+        <v>1.111601269756989</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1240023884248609</v>
+        <v>-0.1239191656836791</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2939261572611178</v>
+        <v>0.2933231573995725</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3547469353966792</v>
       </c>
       <c r="E14" t="n">
-        <v>1.829895288848978</v>
+        <v>1.828169512005524</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.34407689721562</v>
+        <v>-0.3449062045312561</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4419122516113507</v>
+        <v>0.4408084552546238</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4850249492577637</v>
       </c>
       <c r="E15" t="n">
-        <v>2.533477863376971</v>
+        <v>2.532247042836335</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6157684861642744</v>
+        <v>-0.6165700525661832</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6301664723088457</v>
+        <v>0.6290524556154823</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6424049886131734</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202471898631337</v>
+        <v>3.2023171335337</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9357686862968247</v>
+        <v>-0.9361628992813701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7855447901433494</v>
+        <v>0.7845388170087133</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8216307095407106</v>
       </c>
       <c r="E17" t="n">
-        <v>3.857858285678434</v>
+        <v>3.858522607559797</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.194603091756937</v>
+        <v>-1.19528201411921</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9845741657517505</v>
+        <v>0.9835170909339326</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.015242195549379</v>
       </c>
       <c r="E18" t="n">
-        <v>4.397186910027289</v>
+        <v>4.398078999410834</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.555893451900386</v>
+        <v>-1.556197141903295</v>
       </c>
       <c r="G18" t="n">
-        <v>1.183955412950061</v>
+        <v>1.182831175920061</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.213685751613589</v>
       </c>
       <c r="E19" t="n">
-        <v>4.924649723541329</v>
+        <v>4.926051369708601</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.837316991398992</v>
+        <v>-1.838155789027219</v>
       </c>
       <c r="G19" t="n">
-        <v>1.379051419001554</v>
+        <v>1.378496600727008</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.407844236870082</v>
       </c>
       <c r="E20" t="n">
-        <v>5.285312263005687</v>
+        <v>5.287141703263595</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.158627584693133</v>
+        <v>-2.159197733472633</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588963993079588</v>
+        <v>1.588226668793679</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.588848058430741</v>
       </c>
       <c r="E21" t="n">
-        <v>5.596772641854512</v>
+        <v>5.598496958649875</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.472578805585048</v>
+        <v>-2.473862187856957</v>
       </c>
       <c r="G21" t="n">
-        <v>1.769161668411449</v>
+        <v>1.768449164943085</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.749726130093239</v>
       </c>
       <c r="E22" t="n">
-        <v>5.831998069684631</v>
+        <v>5.834521032785721</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.782317057710647</v>
+        <v>-2.783666872170692</v>
       </c>
       <c r="G22" t="n">
-        <v>1.896743590691233</v>
+        <v>1.895985825732051</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.882812528773327</v>
       </c>
       <c r="E23" t="n">
-        <v>5.980715648128409</v>
+        <v>5.983718967051408</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.034100890939762</v>
+        <v>-3.035187166719397</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013976692102656</v>
+        <v>2.01355035806011</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.980111903939368</v>
       </c>
       <c r="E24" t="n">
-        <v>6.070923259377112</v>
+        <v>6.073965999598566</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.268452479987471</v>
+        <v>-3.269359899875971</v>
       </c>
       <c r="G24" t="n">
-        <v>2.117067767705537</v>
+        <v>2.116331903467719</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.036550608017097</v>
       </c>
       <c r="E25" t="n">
-        <v>6.084468125516472</v>
+        <v>6.087575107853926</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.44324797738297</v>
+        <v>-3.444145906958878</v>
       </c>
       <c r="G25" t="n">
-        <v>2.175853683989794</v>
+        <v>2.17446517825534</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.050421644063854</v>
       </c>
       <c r="E26" t="n">
-        <v>6.031744328905668</v>
+        <v>6.035038197398758</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.608178659852244</v>
+        <v>-3.60927442594447</v>
       </c>
       <c r="G26" t="n">
-        <v>2.202480581023696</v>
+        <v>2.200985491778606</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.024000020161789</v>
       </c>
       <c r="E27" t="n">
-        <v>5.931998223479058</v>
+        <v>5.934801515813603</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.695993252279947</v>
+        <v>-3.697289774984674</v>
       </c>
       <c r="G27" t="n">
-        <v>2.204358202868605</v>
+        <v>2.20288793444106</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.962423759111137</v>
       </c>
       <c r="E28" t="n">
-        <v>5.860958123567805</v>
+        <v>5.863279600032349</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.763151084317474</v>
+        <v>-3.764431546493201</v>
       </c>
       <c r="G28" t="n">
-        <v>2.212941825595057</v>
+        <v>2.211236489424876</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.870864386137061</v>
       </c>
       <c r="E29" t="n">
-        <v>5.666011042421585</v>
+        <v>5.667869683641311</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.801191907302055</v>
+        <v>-3.802492080127009</v>
       </c>
       <c r="G29" t="n">
-        <v>2.208298872665967</v>
+        <v>2.207297279675604</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.755810876195585</v>
       </c>
       <c r="E30" t="n">
-        <v>5.455599131896459</v>
+        <v>5.457292787681913</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.825871830206731</v>
+        <v>-3.827628268060093</v>
       </c>
       <c r="G30" t="n">
-        <v>2.162143832416162</v>
+        <v>2.161263423417344</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.625012356787913</v>
       </c>
       <c r="E31" t="n">
-        <v>5.177648316782079</v>
+        <v>5.179155086411897</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.721990138562622</v>
+        <v>-3.723921782186894</v>
       </c>
       <c r="G31" t="n">
-        <v>2.079670095905002</v>
+        <v>2.078747345511548</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.485054394889492</v>
       </c>
       <c r="E32" t="n">
-        <v>4.870305273549616</v>
+        <v>4.872054411162525</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.64010772152828</v>
+        <v>-3.642010164190734</v>
       </c>
       <c r="G32" t="n">
-        <v>1.932287001416314</v>
+        <v>1.931884028143223</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.342955232996998</v>
       </c>
       <c r="E33" t="n">
-        <v>4.589519045042691</v>
+        <v>4.59094551202751</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.50469921145718</v>
+        <v>-3.506387027050271</v>
       </c>
       <c r="G33" t="n">
-        <v>1.840349233179884</v>
+        <v>1.839838216348066</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.204767097967207</v>
       </c>
       <c r="E34" t="n">
-        <v>4.258822532596144</v>
+        <v>4.260057733281053</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.394039976575074</v>
+        <v>-3.395053249950164</v>
       </c>
       <c r="G34" t="n">
-        <v>1.716956188872917</v>
+        <v>1.716039278671827</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.073785226914983</v>
       </c>
       <c r="E35" t="n">
-        <v>3.914255563285964</v>
+        <v>3.915606107770055</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.275935956477424</v>
+        <v>-3.276774024081605</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602070844791676</v>
+        <v>1.601570048296494</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9536813947828623</v>
       </c>
       <c r="E36" t="n">
-        <v>3.578124751845054</v>
+        <v>3.579656342292417</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.150704711624003</v>
+        <v>-3.151482917256457</v>
       </c>
       <c r="G36" t="n">
-        <v>1.457314376818533</v>
+        <v>1.456677795850897</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8455313370247981</v>
       </c>
       <c r="E37" t="n">
-        <v>3.231027519193329</v>
+        <v>3.231776523863965</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.01432818966863</v>
+        <v>-3.014041290218767</v>
       </c>
       <c r="G37" t="n">
-        <v>1.326727675567659</v>
+        <v>1.325984511089386</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7494024517522312</v>
       </c>
       <c r="E38" t="n">
-        <v>2.870773793194426</v>
+        <v>2.871892190032062</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.96052614754269</v>
+        <v>-2.9598822663346</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180776888256152</v>
+        <v>1.180086285509153</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6646738538924361</v>
       </c>
       <c r="E39" t="n">
-        <v>2.528484498906063</v>
+        <v>2.529046617421063</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.820795895122501</v>
+        <v>-2.820212605910182</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079395528967725</v>
+        <v>1.078896192520634</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5894809459319132</v>
       </c>
       <c r="E40" t="n">
-        <v>2.21212711876033</v>
+        <v>2.212387007320512</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.704321288694304</v>
+        <v>-2.703609515249986</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9595095201751208</v>
+        <v>0.9589138205540301</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5214652494640958</v>
       </c>
       <c r="E41" t="n">
-        <v>1.879198192782783</v>
+        <v>1.879497502641419</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.575269828011021</v>
+        <v>-2.574531773701067</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8372567734271537</v>
+        <v>0.8367997783746992</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4593450874421398</v>
       </c>
       <c r="E42" t="n">
-        <v>1.547967302734963</v>
+        <v>1.54831625422869</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.509696878176175</v>
+        <v>-2.509123809300493</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7202704201430942</v>
+        <v>0.7200879141317306</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4010877752061731</v>
       </c>
       <c r="E43" t="n">
-        <v>1.282584581587125</v>
+        <v>1.28299485510067</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.429665802121106</v>
+        <v>-2.428978119470287</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6572854055493839</v>
+        <v>0.6567962894389294</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3454040360003608</v>
       </c>
       <c r="E44" t="n">
-        <v>1.013191108333561</v>
+        <v>1.013948873292743</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.316537625917272</v>
+        <v>-2.315431639488409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5492695877358674</v>
+        <v>0.5489542173482311</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2908274250448383</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7909031666369843</v>
+        <v>0.7922799919867112</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.272247067079557</v>
+        <v>-2.271164441420148</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4428145613315324</v>
+        <v>0.4424816703668051</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2365600725484798</v>
       </c>
       <c r="E46" t="n">
-        <v>0.55634352073632</v>
+        <v>0.557815249211956</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.180717382284536</v>
+        <v>-2.179787331650627</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3744288288495507</v>
+        <v>0.3744507295709143</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1828401763272862</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3576879174391915</v>
+        <v>0.3591961471171002</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.090010434588742</v>
+        <v>-2.089535188935151</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2936443679795724</v>
+        <v>0.2937889127405723</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1306189036157021</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2375142791726784</v>
+        <v>0.2393627000557688</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.986003908832861</v>
+        <v>-1.985374628105679</v>
       </c>
       <c r="G48" t="n">
-        <v>0.203394415336233</v>
+        <v>0.2039506936588692</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08076915845555398</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1096067661686218</v>
+        <v>0.1110887149808941</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.886103038308615</v>
+        <v>-1.885981124293024</v>
       </c>
       <c r="G49" t="n">
-        <v>0.151692652389065</v>
+        <v>0.1520503641713377</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03403167967642867</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004627848384195445</v>
+        <v>0.006073295994195056</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.801114368960865</v>
+        <v>-1.801291764803911</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08499035535590113</v>
+        <v>0.08545611069690101</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.008686185389567854</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08493004146405324</v>
+        <v>-0.08384960587678079</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.670818217280082</v>
+        <v>-1.671260611851627</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02598397180991698</v>
+        <v>0.02688190138582583</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04694610640432156</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1874765191290257</v>
+        <v>-0.1871275676352985</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.549990477468842</v>
+        <v>-1.550749702476114</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.009692303291437073</v>
+        <v>-0.009357952278618981</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08024150619723101</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3071785618621753</v>
+        <v>-0.3069770752256299</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.437705479037508</v>
+        <v>-1.438337679860872</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07666178912523727</v>
+        <v>-0.07649534364287368</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1089366669010709</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3409976557918936</v>
+        <v>-0.3408531110308936</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.366309127392073</v>
+        <v>-1.3668347447048</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.140712638825311</v>
+        <v>-0.140473190938402</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.133696292242495</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4694074253392227</v>
+        <v>-0.4692877013957682</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.320670944166449</v>
+        <v>-1.321527992395812</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.149043673232036</v>
+        <v>-0.149475847466945</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1558443862408375</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5473725333456564</v>
+        <v>-0.5479185913316562</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.236823302401744</v>
+        <v>-1.236957626826108</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1996606204476588</v>
+        <v>-0.1998504266994769</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1766287480150448</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6466616437198115</v>
+        <v>-0.647517231901084</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.195463060082482</v>
+        <v>-1.195712728306028</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2286849164468328</v>
+        <v>-0.2291506717878327</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1968237637959758</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6684514014285329</v>
+        <v>-0.6697128829790781</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.155475262968675</v>
+        <v>-1.155654848883857</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.26292012408246</v>
+        <v>-0.2634968430783689</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.216968086484102</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7645400863874162</v>
+        <v>-0.7655241588006887</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.141715769759951</v>
+        <v>-1.142091002119315</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.315356291219355</v>
+        <v>-0.3159023492053549</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2367778389407806</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8313139257770347</v>
+        <v>-0.8320235091492163</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102712045059416</v>
+        <v>-1.10271788525178</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3488308137996187</v>
+        <v>-0.3495476974122549</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2561634354228711</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9618451452004542</v>
+        <v>-0.9627708156900903</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.092580771356601</v>
+        <v>-1.09317355088151</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3924920919101524</v>
+        <v>-0.3930060288381523</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2748320482790407</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.082338533998876</v>
+        <v>-1.083746020358512</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.092214299285783</v>
+        <v>-1.092872780974783</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4334128597540506</v>
+        <v>-0.4343107893299594</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.292882814387412</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.142848767078496</v>
+        <v>-1.143815318914678</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.131149401726045</v>
+        <v>-1.131899866444772</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4928762383524892</v>
+        <v>-0.4937697877841253</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3102440381085658</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.23771685183338</v>
+        <v>-1.239230921703652</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.159510835891947</v>
+        <v>-1.160433586285401</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5217939508410269</v>
+        <v>-0.5224378320491175</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3272837716293105</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.367542868028891</v>
+        <v>-1.369537293721072</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.119883670656594</v>
+        <v>-1.121023968215593</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5468907174756564</v>
+        <v>-0.5475287584913836</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3436927363977555</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.426981425809784</v>
+        <v>-1.428924749818783</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.197904260490482</v>
+        <v>-1.199408110024118</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6016585814137326</v>
+        <v>-0.6022060994478234</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3598313356141769</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.526717310899757</v>
+        <v>-1.528593472696575</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.28902002165173</v>
+        <v>-1.290453788877002</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6477347790666294</v>
+        <v>-0.6478253020482657</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3757078627831872</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.553404069905386</v>
+        <v>-1.554637810542204</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.359100869967257</v>
+        <v>-1.360460174739893</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6713890181874412</v>
+        <v>-0.6714547203515321</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3910552586002587</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.620623223962732</v>
+        <v>-1.621319666902095</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.441063589646598</v>
+        <v>-1.442571819324507</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6669008303559879</v>
+        <v>-0.6667606657392606</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4059896363941345</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.676515324930808</v>
+        <v>-1.676849675943626</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.516553916138942</v>
+        <v>-1.517856279036032</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6915537423709812</v>
+        <v>-0.6915595825633449</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4200225446447619</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.70889481144289</v>
+        <v>-1.709661336690617</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.627808120618093</v>
+        <v>-1.629098803130457</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7324058879546066</v>
+        <v>-0.7326190549758793</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4330821529501339</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.68956523476735</v>
+        <v>-1.69001638962744</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.722077585655704</v>
+        <v>-1.723374108360431</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7552176793269642</v>
+        <v>-0.7551286163934188</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4454407479109619</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.678804680337352</v>
+        <v>-1.67904120812808</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.774569234620054</v>
+        <v>-1.775747493429417</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7772994466538673</v>
+        <v>-0.776905233669322</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4564291578323502</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.629475495537911</v>
+        <v>-1.629893069291911</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.84718764651758</v>
+        <v>-1.847917670563034</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7743384691255045</v>
+        <v>-0.7741545030660499</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4657289865030536</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.541749966043753</v>
+        <v>-1.541982113690207</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.950841570659507</v>
+        <v>-1.950974435035779</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7774746524247763</v>
+        <v>-0.7772512650668674</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4726757119895019</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424683310114693</v>
+        <v>-1.424554825882693</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004662593410629</v>
+        <v>-2.004393214537856</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7651270257199615</v>
+        <v>-0.7646291493209616</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4759602212577759</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290021614642093</v>
+        <v>-1.289497457377457</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.055613161615024</v>
+        <v>-2.055506578104388</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7523326242993286</v>
+        <v>-0.7516887430912378</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4751296252992535</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.108600419010051</v>
+        <v>-1.10739295923887</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.083279612889653</v>
+        <v>-2.082656172354835</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7258050105356084</v>
+        <v>-0.7253042140404268</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4691502559988804</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9490638842126394</v>
+        <v>-0.9469263738075491</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079841929659608</v>
+        <v>-2.0793776343667</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6708122991915323</v>
+        <v>-0.6702735414459869</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.457755990847895</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7065440561203409</v>
+        <v>-0.7045029088892505</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.115662749521963</v>
+        <v>-2.114551652924781</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6111313734275483</v>
+        <v>-0.6111153128985483</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4413146648608517</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4485170572545011</v>
+        <v>-0.4468058808919561</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.118166001973826</v>
+        <v>-2.116863639076735</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5172137799798463</v>
+        <v>-0.5171495378638463</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4203983630594525</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1568826714321248</v>
+        <v>-0.1562533907049432</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.103746567028011</v>
+        <v>-2.102529616944239</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4481301445104103</v>
+        <v>-0.4482688490790466</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3960543700538588</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1449092689587032</v>
+        <v>0.1447267629473396</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.036542013451575</v>
+        <v>-2.036166051068166</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3332477205253502</v>
+        <v>-0.3336784347121682</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3690168665124137</v>
       </c>
       <c r="E84" t="n">
-        <v>0.490873504291883</v>
+        <v>0.489882131638156</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.978827042441999</v>
+        <v>-1.978577374218454</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2527596494178264</v>
+        <v>-0.2531217413443717</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3406403736539497</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7968718432326191</v>
+        <v>0.7955475796141649</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.906546631677519</v>
+        <v>-1.906445888359246</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1785235042355736</v>
+        <v>-0.179028680875028</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3107953684881418</v>
       </c>
       <c r="E86" t="n">
-        <v>1.112899252509807</v>
+        <v>1.111427524034171</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.856032617852305</v>
+        <v>-1.856318787278123</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.105547380555775</v>
+        <v>-0.1055809616618659</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2804384046844737</v>
       </c>
       <c r="E87" t="n">
-        <v>1.35687328850065</v>
+        <v>1.355912576856833</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.679476302459171</v>
+        <v>-1.680850207712716</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05868129688569665</v>
+        <v>-0.05892074477260567</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2496738302962319</v>
       </c>
       <c r="E88" t="n">
-        <v>1.581317721227499</v>
+        <v>1.580041639196045</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.497338223214492</v>
+        <v>-1.499351629531855</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01049870175773932</v>
+        <v>0.01032203593873937</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.218597291606754</v>
       </c>
       <c r="E89" t="n">
-        <v>1.769697506060812</v>
+        <v>1.768056412006631</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.262593151206282</v>
+        <v>-1.265949801767282</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06653972763108791</v>
+        <v>0.06624479791672436</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1869973808681582</v>
       </c>
       <c r="E90" t="n">
-        <v>1.952232718386218</v>
+        <v>1.950247052982582</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.032524613233253</v>
+        <v>-1.036392280626071</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09867100596771565</v>
+        <v>0.09845929899453389</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1543758841061093</v>
       </c>
       <c r="E91" t="n">
-        <v>2.137356595976804</v>
+        <v>2.134728509413169</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8074246189135865</v>
+        <v>-0.8116558382810399</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08190527373981106</v>
+        <v>0.08175634883453838</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1207384199895841</v>
       </c>
       <c r="E92" t="n">
-        <v>2.253931215699228</v>
+        <v>2.251271008077592</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6068578126654586</v>
+        <v>-0.6111488940046392</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09225263456008101</v>
+        <v>0.09239863936917188</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08728142785248177</v>
       </c>
       <c r="E93" t="n">
-        <v>2.3585013200182</v>
+        <v>2.355439599171564</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3575662815275255</v>
+        <v>-0.3622048543123424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04293367009727607</v>
+        <v>0.043206699090276</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05602081716255076</v>
       </c>
       <c r="E94" t="n">
-        <v>2.377601669143467</v>
+        <v>2.374839258155468</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2157503504094727</v>
+        <v>-0.2203363614630169</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007968438416194547</v>
+        <v>0.008149484379467227</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02852397502286334</v>
       </c>
       <c r="E95" t="n">
-        <v>2.331448088941753</v>
+        <v>2.329253636661117</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05260165663515282</v>
+        <v>-0.05670585181869717</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02849918275043202</v>
+        <v>-0.0283940592878866</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.005657310551224756</v>
       </c>
       <c r="E96" t="n">
-        <v>2.232214460395052</v>
+        <v>2.230344138790598</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06725369114754226</v>
+        <v>0.06322395841663425</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07124793080414782</v>
+        <v>-0.07078071541505704</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01254875092344156</v>
       </c>
       <c r="E97" t="n">
-        <v>2.084828445810182</v>
+        <v>2.082629613385274</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1372717573951598</v>
+        <v>0.1339618283730698</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1270144676364056</v>
+        <v>-0.1263151046008603</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.025548560913745</v>
       </c>
       <c r="E98" t="n">
-        <v>1.89100268159778</v>
+        <v>1.889154260714689</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2020467909483243</v>
+        <v>0.1992726995755977</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1401549004545839</v>
+        <v>-0.1401023387233112</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.0337318181705572</v>
       </c>
       <c r="E99" t="n">
-        <v>1.693760404852651</v>
+        <v>1.692003966999288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2113983989705945</v>
+        <v>0.2089075569275042</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.133932175491131</v>
+        <v>-0.1340022577994946</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.03622146966361837</v>
       </c>
       <c r="E100" t="n">
-        <v>1.536373060845057</v>
+        <v>1.534188828901057</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2339006601476793</v>
+        <v>0.2320726799378617</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1305463239683137</v>
+        <v>-0.130349217476041</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0341721835963609</v>
       </c>
       <c r="E101" t="n">
-        <v>1.394652032852913</v>
+        <v>1.391936343403823</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2240759965439547</v>
+        <v>0.2227634133102278</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105246844976827</v>
+        <v>-0.1106181275755009</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.02775205953076701</v>
       </c>
       <c r="E102" t="n">
-        <v>1.214769727908689</v>
+        <v>1.211334234750781</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2384457898546781</v>
+        <v>0.2371857683522239</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1418149751339471</v>
+        <v>-0.1420427426361288</v>
       </c>
     </row>
   </sheetData>
